--- a/digi/b2/b2.xlsx
+++ b/digi/b2/b2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcericmitzscherling/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/INTENSO/s-mamitz/MA-Buch-Digitalisierung/digi/b2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A82181-BD64-C14D-95BB-C1C8155788BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F72028-FBB5-1541-A36D-A17FB0FA565E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -1958,42 +1958,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://danskelov.netlify.app/b2/web_high/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://danskelov.netlify.app/b2/web_low/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://danskelov.netlify.app/b2/b2.pdf</t>
-    </r>
-  </si>
-  <si>
     <t>2-1-1</t>
   </si>
   <si>
@@ -2106,6 +2070,15 @@
   </si>
   <si>
     <t>2-12-1</t>
+  </si>
+  <si>
+    <t>https://danskelov.netlify.app/digi/b2/web_high/</t>
+  </si>
+  <si>
+    <t>https://danskelov.netlify.app/digi/b2/web_low/</t>
+  </si>
+  <si>
+    <t>https://danskelov.netlify.app/digi/b2/b2.pdf</t>
   </si>
 </sst>
 </file>
@@ -2210,7 +2183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2223,6 +2196,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2533,9 +2507,9 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3107,8 +3081,8 @@
       <c r="D25" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>633</v>
+      <c r="E25" s="12" t="s">
+        <v>671</v>
       </c>
       <c r="F25" t="s">
         <v>102</v>
@@ -3130,8 +3104,8 @@
       <c r="D26" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>634</v>
+      <c r="E26" s="12" t="s">
+        <v>672</v>
       </c>
       <c r="F26" t="s">
         <v>105</v>
@@ -3150,8 +3124,8 @@
       <c r="D27" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>633</v>
+      <c r="E27" s="12" t="s">
+        <v>671</v>
       </c>
       <c r="F27" t="s">
         <v>115</v>
@@ -3170,8 +3144,8 @@
       <c r="D28" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>635</v>
+      <c r="E28" s="12" t="s">
+        <v>673</v>
       </c>
       <c r="F28" t="s">
         <v>116</v>
@@ -3203,8 +3177,8 @@
   </sheetPr>
   <dimension ref="A1:E269"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E281" sqref="E281"/>
     </sheetView>
   </sheetViews>
@@ -3268,7 +3242,7 @@
         <v>447</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3300,7 +3274,7 @@
         <v>448</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3311,7 +3285,7 @@
         <v>206</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3338,7 +3312,7 @@
         <v>207</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -3398,7 +3372,7 @@
         <v>211</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -3409,7 +3383,7 @@
         <v>212</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -3420,7 +3394,7 @@
         <v>213</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3458,7 +3432,7 @@
         <v>215</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -3505,7 +3479,7 @@
         <v>219</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3568,7 +3542,7 @@
         <v>225</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -3590,7 +3564,7 @@
         <v>227</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -3688,7 +3662,7 @@
         <v>233</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -3748,7 +3722,7 @@
         <v>237</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -3759,7 +3733,7 @@
         <v>238</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -3824,7 +3798,7 @@
         <v>241</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -3835,7 +3809,7 @@
         <v>242</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -3860,7 +3834,7 @@
         <v>452</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -3887,7 +3861,7 @@
         <v>245</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -3901,7 +3875,7 @@
         <v>453</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -4024,7 +3998,7 @@
         <v>254</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -4073,7 +4047,7 @@
         <v>257</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -4084,7 +4058,7 @@
         <v>258</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -4095,7 +4069,7 @@
         <v>259</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -4117,7 +4091,7 @@
         <v>261</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -4128,7 +4102,7 @@
         <v>262</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -4166,7 +4140,7 @@
         <v>266</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -4188,7 +4162,7 @@
         <v>268</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -4229,7 +4203,7 @@
         <v>272</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -4251,7 +4225,7 @@
         <v>274</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -4270,7 +4244,7 @@
         <v>276</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -4281,7 +4255,7 @@
         <v>277</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -4292,7 +4266,7 @@
         <v>278</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -4303,7 +4277,7 @@
         <v>279</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -4336,7 +4310,7 @@
         <v>456</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -4440,7 +4414,7 @@
         <v>290</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -4462,7 +4436,7 @@
         <v>292</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -4489,7 +4463,7 @@
         <v>293</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -4503,7 +4477,7 @@
         <v>458</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
